--- a/data/sp_12_weeks.xlsx
+++ b/data/sp_12_weeks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/code/cifo/cifo_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITA\OneDrive\Faculdade\2 Mestrado\1º semestre\CIFO\Project\CIFO_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83514E03-F843-6848-8549-0DA5C9F2903A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{E8F5DD63-2A0A-3049-84CE-7B1EBB8A8441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{683359FD-90FD-46C6-9347-1D9FA3BBDDA6}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{1A7EFD7C-FB31-B34D-B73C-8358A5AA7E54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A7EFD7C-FB31-B34D-B73C-8358A5AA7E54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1894,12 +1894,12 @@
   <dimension ref="A1:SI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>78.52</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>119.56</v>
       </c>
     </row>
-    <row r="3" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80.206085709816634</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>118.83600470270645</v>
       </c>
     </row>
-    <row r="4" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>78.384787653392451</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>122.87245946726046</v>
       </c>
     </row>
-    <row r="5" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>81.511740264775028</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>121.81372637619155</v>
       </c>
     </row>
-    <row r="6" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>79.857587322198683</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>116.43219443716433</v>
       </c>
     </row>
-    <row r="7" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>78.272722985649622</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>123.00901216386956</v>
       </c>
     </row>
-    <row r="8" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80.278594231388567</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>119.99123672242769</v>
       </c>
     </row>
-    <row r="9" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80.953917697840595</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>124.90651253436513</v>
       </c>
     </row>
-    <row r="10" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>79.935290313159527</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>118.90460610304099</v>
       </c>
     </row>
-    <row r="11" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>81.670383033998306</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>119.10955142106465</v>
       </c>
     </row>
-    <row r="12" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>81.235273376200965</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>122.72776706755931</v>
       </c>
     </row>
-    <row r="13" spans="1:503" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:503" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>78.755031143214836</v>
       </c>
@@ -21544,5 +21544,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>